--- a/results/pvalue_SIDER_rare_indication_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.246</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.332</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.524</t>
+          <t>5.265</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.357</t>
+          <t>-2.455</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.372</t>
+          <t>-6.605</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.742</t>
+          <t>22.741</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22.675</t>
+          <t>22.674</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>10.297</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
